--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -43,52 +43,100 @@
     <t xml:space="preserve">Hasina</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Résultat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temps passé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reste à faire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20260216-01-init-table.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initiation des tables a utiliser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20260216-02-insert.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertion des donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modele.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tsilavo</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Résultat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temps passé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reste à faire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avancement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20260216-01-init-table.sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initiation des tables a utiliser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20260216-02-insert.sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertion des donnees</t>
+    <t xml:space="preserve">WIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ville.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dispatch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saisie dons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert-dons.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saisie besoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert-besoin.php</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -289,7 +337,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,6 +387,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -425,125 +477,69 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="25" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="2" createdVersion="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J183" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Admin"/>
-        <s v="Login"/>
-        <s v="Modele"/>
+      <sharedItems containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
-      <sharedItems containsBlank="1" count="13">
-        <s v="20260213-02-create-table.sql"/>
-        <s v="20260215-01-insert.sql"/>
-        <s v="EchangeController.php"/>
-        <s v="EchangeModel.php"/>
-        <s v="index.php"/>
-        <s v="Insert.sql"/>
-        <s v="Modele.php"/>
-        <s v="statistique.php"/>
-        <s v="table.sql"/>
-        <s v="User.php"/>
-        <s v="UserController.php"/>
-        <s v="UserModel.php"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="20260216-01-init-table.sql"/>
+        <s v="20260216-02-insert.sql"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="23">
-        <s v="AddUser"/>
-        <s v="Affichage dynamique nbr echange"/>
-        <s v="Affichage dynamique nbr utilisateur"/>
-        <s v="Création html"/>
-        <s v="Design css"/>
-        <s v="FindUser"/>
-        <s v="getnbrechangeeffectuer"/>
-        <s v="getnbruser"/>
-        <s v="getnombreechangeeffectuer"/>
-        <s v="getnombreuser"/>
-        <s v="Graph nbr echange effectuer (Création html)"/>
-        <s v="Graph nbr utilisateurs (Création html)"/>
-        <s v="Insert 3 echange"/>
-        <s v="Insert 3 user "/>
-        <s v="Insert admin"/>
-        <s v="Insert categorie"/>
-        <s v="Insert produit"/>
-        <s v="Insert status echange"/>
-        <s v="table echange"/>
-        <s v="table status_echange"/>
-        <s v="table User"/>
-        <s v="validation js login"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="initiation des tables a utiliser"/>
+        <s v="insertion des donnees"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Affichage"/>
+      <sharedItems containsBlank="1" count="2">
         <s v="Base"/>
-        <s v="Fonction"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="7">
-        <n v="2"/>
-        <n v="5"/>
-        <n v="10"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15" count="2">
         <n v="15"/>
-        <n v="20"/>
-        <n v="30"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="30" count="13">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
         <n v="0"/>
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="10"/>
-        <n v="20"/>
-        <n v="30"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Reste à faire" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="30" count="4">
-        <n v="0"/>
-        <n v="20"/>
-        <n v="30"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15" count="2">
+        <n v="15"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Avancement" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
         <n v="0"/>
-        <n v="1"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qui" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="3">
         <s v="Bryan"/>
         <s v="Hasina"/>
-        <s v="Tsilavo"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
-        <s v="ok"/>
+      <sharedItems containsString="0" containsBlank="1" count="1">
         <m/>
       </sharedItems>
     </cacheField>
@@ -552,313 +548,37 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="25">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
   <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="9"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="20"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="22"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="12"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="12"/>
-    <x v="22"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="12"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
@@ -869,11 +589,10 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="5">
-        <item x="3"/>
+      <items count="4">
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -900,7 +619,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.5"/>
@@ -925,32 +644,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>197</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>20</v>
+      <c r="B6" s="8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>60</v>
+      <c r="B7" s="10" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="n">
-        <v>277</v>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -970,11 +685,11 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.94"/>
@@ -986,61 +701,64 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="H2" s="12" t="n">
         <f aca="false">(F2/(F2+G2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,42 +769,225 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>15</v>
       </c>
       <c r="H3" s="12" t="n">
         <f aca="false">(F3/(F3+G3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="J3" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H4" s="12"/>
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <f aca="false">(F4/(F4+G4))</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H5" s="12"/>
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <f aca="false">(F5/(F5+G5))</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="12"/>
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <f aca="false">(F6/(F6+G6))</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H7" s="12"/>
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <f aca="false">(F7/(F7+G7))</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <f aca="false">(F8/(F8+G8))</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <f aca="false">(F9/(F9+G9))</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="12"/>
@@ -1454,7 +1355,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
@@ -1465,50 +1366,50 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!E2:E312)</f>
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!F2:F312)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!G2:G312)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
         <f aca="false">(B2/(B2+C2))</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>0</v>
+        <v>-0.0740740740740741</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="n">
         <f aca="false">C2/60</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1434,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Hasina</t>
   </si>
   <si>
+    <t xml:space="preserve">Tsilavo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Résultat</t>
   </si>
   <si>
@@ -103,12 +106,6 @@
     <t xml:space="preserve">Affichage</t>
   </si>
   <si>
-    <t xml:space="preserve">Tsilavo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIP</t>
-  </si>
-  <si>
     <t xml:space="preserve">dashboard</t>
   </si>
   <si>
@@ -121,22 +118,103 @@
     <t xml:space="preserve">ville.php</t>
   </si>
   <si>
-    <t xml:space="preserve">dispatch</t>
+    <t xml:space="preserve">besoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VilleModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllVilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProduitModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllProduits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BesoinController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getinfopourinsertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">besoins.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration dynamique des produits et villes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertbesoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BesoinModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insererBesoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DonController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dons.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration dynamique des produits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DonModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insererDon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution</t>
   </si>
   <si>
     <t xml:space="preserve">distribution.php</t>
   </si>
   <si>
-    <t xml:space="preserve">saisie dons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insert-dons.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saisie besoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert-besoin.php</t>
+    <t xml:space="preserve">20260216-03-distribution.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoir les dons par besoin par produit de chaque ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllDons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllBesoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulerDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integration de distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -477,69 +555,123 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="2" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="24" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J183" sheet="liste des taches"/>
+    <worksheetSource ref="A1:J182" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" count="1">
+      <sharedItems containsBlank="1" count="7">
+        <s v="besoins"/>
+        <s v="dashboard"/>
+        <s v="detail ville"/>
+        <s v="distribution"/>
+        <s v="dons"/>
+        <s v="modele"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="17">
         <s v="20260216-01-init-table.sql"/>
         <s v="20260216-02-insert.sql"/>
+        <s v="20260216-03-distribution.sql"/>
+        <s v="BesoinController.php"/>
+        <s v="BesoinModel.php"/>
+        <s v="besoins.php"/>
+        <s v="dashboard.php"/>
+        <s v="distribution.php"/>
+        <s v="DonController.php"/>
+        <s v="DonModel.php"/>
+        <s v="dons.php"/>
+        <s v="modele.php"/>
+        <s v="ProduitModel.php"/>
+        <s v="route.php"/>
+        <s v="ville.php"/>
+        <s v="VilleModel.php"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="19">
+        <s v="/distribution"/>
+        <s v="avoir les dons par besoin par produit de chaque ville"/>
+        <s v="Création html"/>
+        <s v="getAllBesoins"/>
+        <s v="getAllDons"/>
+        <s v="getAllProduits"/>
+        <s v="getAllVilles"/>
+        <s v="getinfopourinsertion"/>
         <s v="initiation des tables a utiliser"/>
+        <s v="insererBesoin"/>
+        <s v="insererDon"/>
+        <s v="insertbesoin"/>
+        <s v="insertdon"/>
         <s v="insertion des donnees"/>
+        <s v="integration de distribution"/>
+        <s v="Integration dynamique des produits"/>
+        <s v="Integration dynamique des produits et villes"/>
+        <s v="simulerDistribution"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="2">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Affichage"/>
         <s v="Base"/>
+        <s v="Fonction"/>
+        <s v="Integration"/>
+        <s v="route"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15" count="2">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="9">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="10"/>
         <n v="15"/>
+        <n v="20"/>
+        <n v="30"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="7">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="5"/>
+        <n v="10"/>
+        <n v="20"/>
+        <n v="30"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Reste à faire" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
         <n v="0"/>
         <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Reste à faire" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15" count="2">
-        <n v="15"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="Avancement" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
-        <n v="0"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1" count="2">
+        <n v="1"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Qui" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems containsBlank="1" count="4">
         <s v="Bryan"/>
         <s v="Hasina"/>
+        <s v="Tsilavo"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" count="1">
+      <sharedItems containsBlank="1" count="2">
+        <s v="ok"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -548,20 +680,179 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="2">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
   <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="15"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -569,8 +860,113 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
     <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
@@ -578,7 +974,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="1" outlineData="1" compact="0" compactData="0">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
@@ -589,10 +985,11 @@
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" showAll="0">
-      <items count="4">
-        <item x="2"/>
+      <items count="5">
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -616,10 +1013,10 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.5"/>
@@ -644,28 +1041,32 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>15</v>
+      <c r="B6" s="7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="n">
-        <v>30</v>
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="n">
+        <v>239</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -685,15 +1086,15 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.83"/>
@@ -701,45 +1102,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>15</v>
@@ -758,18 +1159,18 @@
         <v>3</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>15</v>
@@ -788,21 +1189,21 @@
         <v>4</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>5</v>
@@ -818,24 +1219,24 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>20</v>
@@ -851,24 +1252,24 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>20</v>
@@ -884,30 +1285,30 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>0</v>
@@ -917,30 +1318,30 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
@@ -949,31 +1350,31 @@
         <f aca="false">(F8/(F8+G8))</f>
         <v>1</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>26</v>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>0</v>
@@ -982,60 +1383,540 @@
         <f aca="false">(F9/(F9+G9))</f>
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="12"/>
+      <c r="E10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <f aca="false">(F10/(F10+G10))</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="12"/>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <f aca="false">(F11/(F11+G11))</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H12" s="12"/>
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <f aca="false">(F12/(F12+G12))</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H13" s="12"/>
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <f aca="false">(F13/(F13+G13))</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H14" s="12"/>
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <f aca="false">(F14/(F14+G14))</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H15" s="12"/>
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <f aca="false">(F15/(F15+G15))</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H16" s="12"/>
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <f aca="false">(F16/(F16+G16))</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H17" s="12"/>
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <f aca="false">(F17/(F17+G17))</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H18" s="12"/>
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <f aca="false">(F18/(F18+G18))</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="12"/>
+      <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12" t="n">
+        <f aca="false">(F19/(F19+G19))</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H20" s="12"/>
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12" t="n">
+        <f aca="false">(F20/(F20+G20))</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="12"/>
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <f aca="false">(F21/(F21+G21))</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H22" s="12"/>
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12" t="n">
+        <f aca="false">(F22/(F22+G22))</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H23" s="12"/>
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12" t="n">
+        <f aca="false">(F23/(F23+G23))</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="12"/>
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12" t="n">
+        <f aca="false">(F24/(F24+G24))</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="12"/>
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12" t="n">
+        <f aca="false">(F25/(F25+G25))</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H26" s="12"/>
@@ -1307,9 +2188,7 @@
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H116" s="12"/>
-    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1355,7 +2234,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.83"/>
@@ -1366,32 +2245,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!E2:E312)</f>
-        <v>135</v>
+        <f aca="false">SUM('liste des taches'!E2:E311)</f>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!F2:F312)</f>
-        <v>125</v>
+        <f aca="false">SUM('liste des taches'!F2:F311)</f>
+        <v>225</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!G2:G312)</f>
+        <f aca="false">SUM('liste des taches'!G2:G311)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
@@ -1400,7 +2279,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0740740740740741</v>
+        <v>-0.0585774058577406</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +2313,7 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -106,115 +106,136 @@
     <t xml:space="preserve">Affichage</t>
   </si>
   <si>
+    <t xml:space="preserve">besoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VilleModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllVilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProduitModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllProduits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BesoinController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getinfopourinsertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">besoins.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration dynamique des produits et villes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertbesoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BesoinModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insererBesoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DonController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dons.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration dynamique des produits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertdon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DonModel.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insererDon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20260216-03-distribution.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoir les dons par besoin par produit de chaque ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllDons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllBesoins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clearSimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertSimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simulerDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integration de distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration</t>
+  </si>
+  <si>
     <t xml:space="preserve">dashboard</t>
   </si>
   <si>
     <t xml:space="preserve">dashboard.php</t>
   </si>
   <si>
-    <t xml:space="preserve">detail ville</t>
-  </si>
-  <si>
     <t xml:space="preserve">ville.php</t>
   </si>
   <si>
-    <t xml:space="preserve">besoins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VilleModel.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAllVilles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ProduitModel.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAllProduits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BesoinController.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getinfopourinsertion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">besoins.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration dynamique des produits et villes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertbesoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BesoinModel.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insererBesoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DonController.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dons.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration dynamique des produits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertdon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DonModel.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insererDon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distribution.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20260216-03-distribution.sql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoir les dons par besoin par produit de chaque ville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAllDons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getAllBesoins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simulerDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">route.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">route</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integration de distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integration</t>
+    <t xml:space="preserve">20260217-01-view.sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vue pour besoin_categorie_ville et recu_categorie_ville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllVillesWithRegion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getStatsGlobales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VilleController.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -555,16 +576,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="24" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="30" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J182" sheet="liste des taches"/>
+    <worksheetSource ref="A1:J183" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="6">
         <s v="besoins"/>
         <s v="dashboard"/>
-        <s v="detail ville"/>
         <s v="distribution"/>
         <s v="dons"/>
         <s v="modele"/>
@@ -572,10 +592,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
-      <sharedItems containsBlank="1" count="17">
+      <sharedItems containsBlank="1" count="19">
         <s v="20260216-01-init-table.sql"/>
         <s v="20260216-02-insert.sql"/>
         <s v="20260216-03-distribution.sql"/>
+        <s v="20260217-01-view.sql"/>
         <s v="BesoinController.php"/>
         <s v="BesoinModel.php"/>
         <s v="besoins.php"/>
@@ -588,30 +609,37 @@
         <s v="ProduitModel.php"/>
         <s v="route.php"/>
         <s v="ville.php"/>
+        <s v="VilleController.php"/>
         <s v="VilleModel.php"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+      <sharedItems containsBlank="1" count="25">
         <s v="/distribution"/>
         <s v="avoir les dons par besoin par produit de chaque ville"/>
+        <s v="clearSimulation"/>
         <s v="Création html"/>
         <s v="getAllBesoins"/>
         <s v="getAllDons"/>
         <s v="getAllProduits"/>
         <s v="getAllVilles"/>
+        <s v="getAllVillesWithRegion"/>
         <s v="getinfopourinsertion"/>
+        <s v="getStatsGlobales"/>
+        <s v="index"/>
         <s v="initiation des tables a utiliser"/>
         <s v="insererBesoin"/>
         <s v="insererDon"/>
         <s v="insertbesoin"/>
         <s v="insertdon"/>
         <s v="insertion des donnees"/>
+        <s v="insertSimulation"/>
         <s v="integration de distribution"/>
         <s v="Integration dynamique des produits"/>
         <s v="Integration dynamique des produits et villes"/>
         <s v="simulerDistribution"/>
+        <s v="vue pour besoin_categorie_ville et recu_categorie_ville"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -619,7 +647,7 @@
       <sharedItems containsBlank="1" count="6">
         <s v="Affichage"/>
         <s v="Base"/>
-        <s v="Fonction"/>
+        <s v="fonction"/>
         <s v="Integration"/>
         <s v="route"/>
         <m/>
@@ -639,11 +667,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="7">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="8">
         <n v="2"/>
         <n v="3"/>
         <n v="5"/>
         <n v="10"/>
+        <n v="15"/>
         <n v="20"/>
         <n v="30"/>
         <m/>
@@ -680,11 +709,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="24">
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="8"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="12"/>
     <x v="1"/>
     <x v="5"/>
     <x v="3"/>
@@ -694,9 +723,9 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="6"/>
+    <x v="5"/>
     <x v="1"/>
-    <x v="13"/>
+    <x v="17"/>
     <x v="1"/>
     <x v="5"/>
     <x v="3"/>
@@ -706,105 +735,33 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="5"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="17"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
     <x v="6"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="15"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="11"/>
     <x v="2"/>
     <x v="3"/>
     <x v="2"/>
@@ -818,41 +775,89 @@
     <x v="4"/>
     <x v="9"/>
     <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="2"/>
     <x v="4"/>
-    <x v="8"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="20"/>
     <x v="0"/>
     <x v="1"/>
     <x v="1"/>
@@ -862,43 +867,43 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="4"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="8"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="0"/>
     <x v="6"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="2"/>
     <x v="1"/>
     <x v="1"/>
@@ -910,63 +915,159 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="9"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <x v="0"/>
     <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="8"/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="23"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="17"/>
-    <x v="2"/>
-    <x v="7"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="6"/>
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="14"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
@@ -1013,7 +1114,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1057,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,7 +1166,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="n">
-        <v>239</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -1086,15 +1187,15 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.83"/>
@@ -1226,23 +1327,23 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
+      <c r="C5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>0</v>
@@ -1252,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>19</v>
@@ -1260,22 +1361,22 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>20</v>
+      <c r="E6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>0</v>
@@ -1284,27 +1385,27 @@
         <f aca="false">(F6/(F6+G6))</f>
         <v>1</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="n">
@@ -1317,31 +1418,31 @@
         <f aca="false">(F7/(F7+G7))</f>
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>0</v>
@@ -1359,16 +1460,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>5</v>
@@ -1392,22 +1493,22 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>0</v>
@@ -1425,19 +1526,19 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>5</v>
@@ -1458,16 +1559,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
@@ -1491,22 +1592,22 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0</v>
@@ -1524,22 +1625,22 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>0</v>
@@ -1557,22 +1658,22 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0</v>
@@ -1590,22 +1691,22 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>0</v>
@@ -1623,22 +1724,22 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -1647,16 +1748,16 @@
         <f aca="false">(F17/(F17+G17))</f>
         <v>1</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="0" t="s">
+      <c r="I17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>48</v>
@@ -1665,7 +1766,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>5</v>
@@ -1681,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>19</v>
@@ -1689,22 +1790,22 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>20</v>
+      <c r="E19" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>0</v>
@@ -1713,25 +1814,25 @@
         <f aca="false">(F19/(F19+G19))</f>
         <v>1</v>
       </c>
-      <c r="I19" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>5</v>
@@ -1755,22 +1856,22 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>0</v>
@@ -1788,16 +1889,16 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>5</v>
@@ -1821,16 +1922,16 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>30</v>
@@ -1854,16 +1955,16 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2</v>
@@ -1887,16 +1988,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>4</v>
@@ -1919,25 +2020,202 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="12"/>
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12" t="n">
+        <f aca="false">(F26/(F26+G26))</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="12"/>
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12" t="n">
+        <f aca="false">(F27/(F27+G27))</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="12"/>
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12" t="n">
+        <f aca="false">(F28/(F28+G28))</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="12"/>
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12" t="n">
+        <f aca="false">(F29/(F29+G29))</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="12"/>
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12" t="n">
+        <f aca="false">(F30/(F30+G30))</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="12"/>
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12" t="n">
+        <f aca="false">(F31/(F31+G31))</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="12"/>
@@ -2188,7 +2466,9 @@
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="12"/>
     </row>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="12"/>
+    </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2245,32 +2525,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!E2:E311)</f>
-        <v>239</v>
+        <f aca="false">SUM('liste des taches'!E2:E312)</f>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!F2:F311)</f>
-        <v>225</v>
+        <f aca="false">SUM('liste des taches'!F2:F312)</f>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!G2:G311)</f>
+        <f aca="false">SUM('liste des taches'!G2:G312)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
@@ -2279,7 +2559,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0585774058577406</v>
+        <v>-0.0526315789473684</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="95">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -193,7 +193,10 @@
     <t xml:space="preserve">insertSimulation</t>
   </si>
   <si>
-    <t xml:space="preserve">simulerDistribution</t>
+    <t xml:space="preserve">calculerDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validerDistribution</t>
   </si>
   <si>
     <t xml:space="preserve">route.php</t>
@@ -211,6 +214,12 @@
     <t xml:space="preserve">Integration</t>
   </si>
   <si>
+    <t xml:space="preserve">simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ajout des boutons simuler et visualiser</t>
+  </si>
+  <si>
     <t xml:space="preserve">dashboard</t>
   </si>
   <si>
@@ -232,10 +241,58 @@
     <t xml:space="preserve">getStatsGlobales</t>
   </si>
   <si>
+    <t xml:space="preserve">getDetailsBesoinsVille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getVilleById</t>
+  </si>
+  <si>
     <t xml:space="preserve">VilleController.php</t>
   </si>
   <si>
     <t xml:space="preserve">index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integration dynamique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">achat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">achats.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBesoinById</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getDonsNatureRestants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getArgentDisponible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insererAchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBesoinsRestants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectuerAchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recapitulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recapitulation.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getRecapMontants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getRecapData</t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -576,27 +633,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="30" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="48" createdVersion="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J183" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="9">
+        <s v="achat"/>
         <s v="besoins"/>
         <s v="dashboard"/>
         <s v="distribution"/>
         <s v="dons"/>
         <s v="modele"/>
+        <s v="recapitulation"/>
+        <s v="simulation"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+      <sharedItems containsBlank="1" count="21">
         <s v="20260216-01-init-table.sql"/>
         <s v="20260216-02-insert.sql"/>
         <s v="20260216-03-distribution.sql"/>
         <s v="20260217-01-view.sql"/>
+        <s v="achats.php"/>
         <s v="BesoinController.php"/>
         <s v="BesoinModel.php"/>
         <s v="besoins.php"/>
@@ -607,6 +668,7 @@
         <s v="dons.php"/>
         <s v="modele.php"/>
         <s v="ProduitModel.php"/>
+        <s v="recapitulation.php"/>
         <s v="route.php"/>
         <s v="ville.php"/>
         <s v="VilleController.php"/>
@@ -615,20 +677,33 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
+      <sharedItems containsBlank="1" count="39">
         <s v="/distribution"/>
+        <s v="ajout des boutons simuler et visualiser"/>
         <s v="avoir les dons par besoin par produit de chaque ville"/>
+        <s v="calculerDistribution"/>
         <s v="clearSimulation"/>
         <s v="Création html"/>
+        <s v="detail"/>
+        <s v="effectuerAchat"/>
         <s v="getAllBesoins"/>
         <s v="getAllDons"/>
         <s v="getAllProduits"/>
         <s v="getAllVilles"/>
         <s v="getAllVillesWithRegion"/>
+        <s v="getArgentDisponible"/>
+        <s v="getBesoinById"/>
+        <s v="getBesoinsRestants"/>
+        <s v="getDetailsBesoinsVille"/>
+        <s v="getDonsNatureRestants"/>
         <s v="getinfopourinsertion"/>
+        <s v="getRecapData"/>
+        <s v="getRecapMontants"/>
         <s v="getStatsGlobales"/>
+        <s v="getVilleById"/>
         <s v="index"/>
         <s v="initiation des tables a utiliser"/>
+        <s v="insererAchat"/>
         <s v="insererBesoin"/>
         <s v="insererDon"/>
         <s v="insertbesoin"/>
@@ -636,9 +711,10 @@
         <s v="insertion des donnees"/>
         <s v="insertSimulation"/>
         <s v="integration de distribution"/>
+        <s v="integration dynamique "/>
         <s v="Integration dynamique des produits"/>
         <s v="Integration dynamique des produits et villes"/>
-        <s v="simulerDistribution"/>
+        <s v="validerDistribution"/>
         <s v="vue pour besoin_categorie_ville et recu_categorie_ville"/>
         <m/>
       </sharedItems>
@@ -654,7 +730,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="9">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="40" count="10">
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
@@ -663,11 +739,12 @@
         <n v="15"/>
         <n v="20"/>
         <n v="30"/>
+        <n v="40"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="30" count="8">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="40" count="10">
         <n v="2"/>
         <n v="3"/>
         <n v="5"/>
@@ -675,6 +752,8 @@
         <n v="15"/>
         <n v="20"/>
         <n v="30"/>
+        <n v="35"/>
+        <n v="40"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -709,11 +788,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30">
-  <r>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="12"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="24"/>
     <x v="1"/>
     <x v="5"/>
     <x v="3"/>
@@ -723,9 +802,9 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="5"/>
+    <x v="8"/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="30"/>
     <x v="1"/>
     <x v="5"/>
     <x v="3"/>
@@ -735,57 +814,117 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="28"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="4"/>
     <x v="12"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="3"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="6"/>
     <x v="5"/>
@@ -795,10 +934,22 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="21"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="34"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="29"/>
+    <x v="2"/>
     <x v="3"/>
     <x v="2"/>
     <x v="0"/>
@@ -807,23 +958,11 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
     <x v="4"/>
-    <x v="15"/>
+    <x v="11"/>
+    <x v="27"/>
     <x v="2"/>
     <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="4"/>
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
@@ -833,199 +972,163 @@
   <r>
     <x v="3"/>
     <x v="9"/>
-    <x v="9"/>
-    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="3"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="3"/>
     <x v="11"/>
+    <x v="9"/>
+    <x v="2"/>
     <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="31"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="36"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="32"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="6"/>
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="20"/>
-    <x v="0"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="5"/>
     <x v="0"/>
     <x v="6"/>
     <x v="5"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="10"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="9"/>
-    <x v="22"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="23"/>
+    <x v="37"/>
     <x v="1"/>
     <x v="5"/>
     <x v="4"/>
@@ -1035,9 +1138,9 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="8"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="12"/>
     <x v="2"/>
     <x v="4"/>
     <x v="3"/>
@@ -1047,9 +1150,9 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="10"/>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="21"/>
     <x v="2"/>
     <x v="4"/>
     <x v="3"/>
@@ -1059,12 +1162,204 @@
     <x v="0"/>
   </r>
   <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
-    <x v="16"/>
-    <x v="11"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="23"/>
     <x v="2"/>
     <x v="6"/>
     <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="15"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="11"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="10"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -1114,7 +1409,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1142,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>108</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1150,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>110</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1166,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="n">
-        <v>304</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -1187,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F33" activeCellId="0" sqref="F33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1958,19 +2253,19 @@
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0</v>
@@ -1991,19 +2286,19 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E25" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>0</v>
@@ -2021,22 +2316,22 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>20</v>
+      <c r="E26" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>0</v>
@@ -2045,31 +2340,31 @@
         <f aca="false">(F26/(F26+G26))</f>
         <v>1</v>
       </c>
-      <c r="I26" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="13" t="s">
+      <c r="I26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="1" t="n">
-        <v>20</v>
+      <c r="E27" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0</v>
@@ -2078,31 +2373,31 @@
         <f aca="false">(F27/(F27+G27))</f>
         <v>1</v>
       </c>
-      <c r="I27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="13" t="s">
+      <c r="I27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0</v>
@@ -2120,22 +2415,22 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>0</v>
@@ -2153,22 +2448,22 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>0</v>
@@ -2186,10 +2481,10 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>69</v>
@@ -2198,10 +2493,10 @@
         <v>51</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0</v>
@@ -2217,56 +2512,599 @@
         <v>19</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12" t="n">
+        <f aca="false">(F32/(F32+G32))</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="12"/>
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12" t="n">
+        <f aca="false">(F33/(F33+G33))</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="12"/>
+      <c r="A34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12" t="n">
+        <f aca="false">(F34/(F34+G34))</f>
+        <v>1</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="12"/>
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12" t="n">
+        <f aca="false">(F35/(F35+G35))</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H36" s="12"/>
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="12" t="n">
+        <f aca="false">(F36/(F36+G36))</f>
+        <v>1</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H37" s="12"/>
+      <c r="A37" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12" t="n">
+        <f aca="false">(F37/(F37+G37))</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="12"/>
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12" t="n">
+        <f aca="false">(F38/(F38+G38))</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="12"/>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="n">
+        <f aca="false">(F39/(F39+G39))</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H40" s="12"/>
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12" t="n">
+        <f aca="false">(F40/(F40+G40))</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H41" s="12"/>
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="n">
+        <f aca="false">(F41/(F41+G41))</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="12"/>
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12" t="n">
+        <f aca="false">(F42/(F42+G42))</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H43" s="12"/>
+      <c r="A43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12" t="n">
+        <f aca="false">(F43/(F43+G43))</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="12"/>
+      <c r="A44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12" t="n">
+        <f aca="false">(F44/(F44+G44))</f>
+        <v>1</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="12"/>
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12" t="n">
+        <f aca="false">(F45/(F45+G45))</f>
+        <v>1</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H46" s="12"/>
+      <c r="A46" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="12" t="n">
+        <f aca="false">(F46/(F46+G46))</f>
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H47" s="12"/>
+      <c r="A47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="n">
+        <f aca="false">(F47/(F47+G47))</f>
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H48" s="12"/>
+      <c r="A48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12" t="n">
+        <f aca="false">(F48/(F48+G48))</f>
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H49" s="12"/>
+      <c r="A49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12" t="n">
+        <f aca="false">(F49/(F49+G49))</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H50" s="12"/>
@@ -2525,29 +3363,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!E2:E312)</f>
-        <v>304</v>
+        <v>629</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!F2:F312)</f>
-        <v>288</v>
+        <v>618</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!G2:G312)</f>
@@ -2559,7 +3397,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0526315789473684</v>
+        <v>-0.0174880763116057</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2568,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="107">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -293,6 +293,42 @@
   </si>
   <si>
     <t xml:space="preserve">getRecapData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">produit.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integration dynamique de la categorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAllCategories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation des setters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insererProduit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProduitController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertproduit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter un bouton reinitialiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/clear appelle la fonction clearSimulation de DonModele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                               </t>
   </si>
   <si>
     <t xml:space="preserve">estimation total</t>
@@ -633,26 +669,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="48" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="55" createdVersion="3">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:J183" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="achat"/>
         <s v="besoins"/>
         <s v="dashboard"/>
         <s v="distribution"/>
         <s v="dons"/>
         <s v="modele"/>
+        <s v="produit"/>
         <s v="recapitulation"/>
         <s v="simulation"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Nom page" numFmtId="0">
-      <sharedItems containsBlank="1" count="21">
+      <sharedItems containsBlank="1" count="23">
         <s v="20260216-01-init-table.sql"/>
         <s v="20260216-02-insert.sql"/>
         <s v="20260216-03-distribution.sql"/>
@@ -667,6 +704,8 @@
         <s v="DonModel.php"/>
         <s v="dons.php"/>
         <s v="modele.php"/>
+        <s v="produit.php"/>
+        <s v="ProduitController"/>
         <s v="ProduitModel.php"/>
         <s v="recapitulation.php"/>
         <s v="route.php"/>
@@ -677,16 +716,18 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="39">
+      <sharedItems containsBlank="1" count="44">
         <s v="/distribution"/>
         <s v="ajout des boutons simuler et visualiser"/>
         <s v="avoir les dons par besoin par produit de chaque ville"/>
         <s v="calculerDistribution"/>
         <s v="clearSimulation"/>
+        <s v="Creation des setters"/>
         <s v="Création html"/>
         <s v="detail"/>
         <s v="effectuerAchat"/>
         <s v="getAllBesoins"/>
+        <s v="getAllCategories"/>
         <s v="getAllDons"/>
         <s v="getAllProduits"/>
         <s v="getAllVilles"/>
@@ -706,12 +747,15 @@
         <s v="insererAchat"/>
         <s v="insererBesoin"/>
         <s v="insererDon"/>
+        <s v="insererProduit"/>
         <s v="insertbesoin"/>
         <s v="insertdon"/>
         <s v="insertion des donnees"/>
+        <s v="insertproduit"/>
         <s v="insertSimulation"/>
         <s v="integration de distribution"/>
         <s v="integration dynamique "/>
+        <s v="integration dynamique de la categorie"/>
         <s v="Integration dynamique des produits"/>
         <s v="Integration dynamique des produits et villes"/>
         <s v="validerDistribution"/>
@@ -744,9 +788,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="40" count="10">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="40" count="11">
         <n v="2"/>
         <n v="3"/>
+        <n v="4"/>
         <n v="5"/>
         <n v="10"/>
         <n v="15"/>
@@ -788,362 +833,362 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="48">
-  <r>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="24"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="30"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="19"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="35"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="28"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
+  <r>
+    <x v="9"/>
+    <x v="0"/>
     <x v="26"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="10"/>
-    <x v="29"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="27"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="31"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="36"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="32"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="17"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="37"/>
     <x v="1"/>
     <x v="5"/>
     <x v="4"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
     <x v="1"/>
+    <x v="33"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="28"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="39"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="32"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="29"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="35"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="41"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="36"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <x v="19"/>
-    <x v="12"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="42"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="14"/>
     <x v="2"/>
     <x v="4"/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -1151,81 +1196,165 @@
   </r>
   <r>
     <x v="2"/>
+    <x v="21"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="24"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
     <x v="19"/>
-    <x v="21"/>
-    <x v="2"/>
+    <x v="37"/>
+    <x v="0"/>
     <x v="4"/>
-    <x v="3"/>
+    <x v="4"/>
     <x v="0"/>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="19"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
     <x v="16"/>
     <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="19"/>
-    <x v="22"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="23"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="18"/>
-    <x v="6"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="17"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
     <x v="4"/>
     <x v="5"/>
     <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="19"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="7"/>
     <x v="8"/>
     <x v="0"/>
@@ -1234,135 +1363,135 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
+    <x v="7"/>
     <x v="17"/>
-    <x v="2"/>
     <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="13"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="25"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="7"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="7"/>
     <x v="7"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="10"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="14"/>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="16"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <x v="15"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
     <x v="6"/>
     <x v="15"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="11"/>
-    <x v="20"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="10"/>
-    <x v="19"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="34"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
 </pivotCacheRecords>
@@ -1409,7 +1538,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1453,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="n">
-        <v>629</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -1482,8 +1611,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3107,31 +3236,301 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H50" s="12"/>
+      <c r="A50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="12" t="n">
+        <f aca="false">(F50/(F50+G50))</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H51" s="12"/>
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12" t="n">
+        <f aca="false">(F51/(F51+G51))</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H52" s="12"/>
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="12" t="n">
+        <f aca="false">(F52/(F52+G52))</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H53" s="12"/>
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12" t="n">
+        <f aca="false">(F53/(F53+G53))</f>
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H54" s="12"/>
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="12" t="n">
+        <f aca="false">(F54/(F54+G54))</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H55" s="12"/>
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12" t="n">
+        <f aca="false">(F55/(F55+G55))</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H56" s="12"/>
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="12" t="n">
+        <f aca="false">(F56/(F56+G56))</f>
+        <v>1</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H57" s="12"/>
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="12" t="n">
+        <f aca="false">(F57/(F57+G57))</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H58" s="12"/>
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12" t="n">
+        <f aca="false">(F58/(F58+G58))</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H59" s="12"/>
@@ -3306,6 +3705,11 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="12"/>
+    </row>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3363,29 +3767,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!E2:E312)</f>
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!F2:F312)</f>
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!G2:G312)</f>
@@ -3397,7 +3801,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0174880763116057</v>
+        <v>-0.0182648401826484</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3406,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="111">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -326,6 +326,18 @@
   </si>
   <si>
     <t xml:space="preserve">Route</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d’un formulaire pour pouvoir changer de mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification de calculerDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modification de validerDistribution</t>
   </si>
   <si>
     <t xml:space="preserve">                                                               </t>
@@ -669,18 +681,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="55" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="60" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J183" sheet="liste des taches"/>
+    <worksheetSource ref="A1:J182" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="11">
         <s v="achat"/>
         <s v="besoins"/>
         <s v="dashboard"/>
         <s v="distribution"/>
         <s v="dons"/>
+        <s v="mode"/>
         <s v="modele"/>
         <s v="produit"/>
         <s v="recapitulation"/>
@@ -716,9 +729,12 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="44">
+      <sharedItems containsBlank="1" count="49">
+        <s v="/clear appelle la fonction clearSimulation de DonModele"/>
         <s v="/distribution"/>
+        <s v="Ajout d’un formulaire pour pouvoir changer de mode"/>
         <s v="ajout des boutons simuler et visualiser"/>
+        <s v="Ajouter un bouton reinitialiser"/>
         <s v="avoir les dons par besoin par produit de chaque ville"/>
         <s v="calculerDistribution"/>
         <s v="clearSimulation"/>
@@ -758,6 +774,8 @@
         <s v="integration dynamique de la categorie"/>
         <s v="Integration dynamique des produits"/>
         <s v="Integration dynamique des produits et villes"/>
+        <s v="Modification de calculerDistribution"/>
+        <s v="Modification de validerDistribution"/>
         <s v="validerDistribution"/>
         <s v="vue pour besoin_categorie_ville et recu_categorie_ville"/>
         <m/>
@@ -774,7 +792,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Estimation" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="40" count="10">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40" count="11">
+        <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
@@ -788,7 +807,8 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Temps passé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="40" count="11">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40" count="12">
+        <n v="1"/>
         <n v="2"/>
         <n v="3"/>
         <n v="4"/>
@@ -833,263 +853,707 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+  <r>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="36"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="13"/>
     <x v="9"/>
     <x v="0"/>
-    <x v="26"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
     <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
-    <x v="33"/>
+    <x v="7"/>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
     <x v="5"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="34"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="6"/>
+    <x v="31"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="13"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="10"/>
+    <x v="35"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="32"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="38"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
     <x v="6"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="46"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="39"/>
     <x v="3"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
-    <x v="21"/>
-    <x v="13"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
     <x v="2"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="47"/>
     <x v="1"/>
-    <x v="16"/>
-    <x v="12"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
     <x v="6"/>
     <x v="6"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
     <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="17"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="26"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <x v="27"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="28"/>
+    <x v="2"/>
     <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
     <x v="40"/>
     <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="9"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="19"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="31"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
     <x v="6"/>
-    <x v="28"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="18"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="30"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="10"/>
     <x v="20"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="12"/>
-    <x v="39"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="17"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="17"/>
+    <x v="40"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="11"/>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="24"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="14"/>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="16"/>
+    <x v="33"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="15"/>
+    <x v="37"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
     <x v="10"/>
-    <x v="32"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="11"/>
-    <x v="29"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="35"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="3"/>
+    <x v="44"/>
     <x v="2"/>
     <x v="7"/>
     <x v="7"/>
@@ -1099,396 +1563,12 @@
     <x v="0"/>
   </r>
   <r>
-    <x v="3"/>
+    <x v="5"/>
     <x v="10"/>
-    <x v="41"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="36"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="19"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="42"/>
-    <x v="1"/>
+    <x v="45"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="21"/>
-    <x v="14"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="21"/>
-    <x v="23"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="21"/>
-    <x v="18"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="21"/>
-    <x v="24"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="20"/>
-    <x v="25"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="20"/>
-    <x v="7"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="19"/>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="16"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="19"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="15"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="11"/>
-    <x v="27"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="17"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="8"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="17"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="17"/>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="11"/>
-    <x v="22"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="10"/>
-    <x v="21"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="14"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="14"/>
-    <x v="38"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="10"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="16"/>
-    <x v="30"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="15"/>
-    <x v="20"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="15"/>
-    <x v="34"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
@@ -1538,7 +1618,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1566,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="n">
-        <v>127</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="n">
-        <v>655</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -1611,16 +1691,16 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="45.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.83"/>
   </cols>
@@ -3533,13 +3613,103 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H59" s="12"/>
+      <c r="A59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="12" t="n">
+        <f aca="false">(F59/(F59+G59))</f>
+        <v>1</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H60" s="12"/>
+      <c r="A60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="12" t="n">
+        <f aca="false">(F60/(F60+G60))</f>
+        <v>1</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H61" s="12"/>
+      <c r="A61" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="12" t="n">
+        <f aca="false">(F61/(F61+G61))</f>
+        <v>1</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H62" s="12"/>
@@ -3703,14 +3873,12 @@
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="12"/>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H116" s="12"/>
-    </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3767,32 +3935,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!E2:E312)</f>
-        <v>657</v>
+        <f aca="false">SUM('liste des taches'!E2:E311)</f>
+        <v>689</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!F2:F312)</f>
-        <v>645</v>
+        <f aca="false">SUM('liste des taches'!F2:F311)</f>
+        <v>677</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!G2:G312)</f>
+        <f aca="false">SUM('liste des taches'!G2:G311)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
@@ -3801,7 +3969,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0182648401826484</v>
+        <v>-0.0174165457184325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3810,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="112">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">Modification de validerDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBesoinsParPetiteQuantite</t>
   </si>
   <si>
     <t xml:space="preserve">                                                               </t>
@@ -1692,7 +1695,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3712,7 +3715,37 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H62" s="12"/>
+      <c r="A62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12" t="n">
+        <f aca="false">(F62/(F62+G62))</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H63" s="12"/>
@@ -3875,7 +3908,7 @@
     </row>
     <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B514" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3935,29 +3968,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!E2:E311)</f>
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!F2:F311)</f>
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">SUM('liste des taches'!G2:G311)</f>
@@ -3969,7 +4002,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0174165457184325</v>
+        <v>-0.0172910662824208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="114">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -319,10 +319,16 @@
     <t xml:space="preserve">insertproduit</t>
   </si>
   <si>
+    <t xml:space="preserve">reinitialisation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ajouter un bouton reinitialiser</t>
   </si>
   <si>
-    <t xml:space="preserve">/clear appelle la fonction clearSimulation de DonModele</t>
+    <t xml:space="preserve">resetDatabase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/clear appelle la fonction resetDatabase de DonModele</t>
   </si>
   <si>
     <t xml:space="preserve">Route</t>
@@ -686,7 +692,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="60" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J182" sheet="liste des taches"/>
+    <worksheetSource ref="A1:J183" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
@@ -1694,8 +1700,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B65" activeCellId="0" sqref="B65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3551,13 +3557,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>25</v>
@@ -3584,22 +3590,22 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>0</v>
@@ -3617,22 +3623,22 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="E59" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>0</v>
@@ -3642,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59" s="0" t="s">
         <v>19</v>
@@ -3650,22 +3656,22 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>0</v>
@@ -3683,22 +3689,22 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>0</v>
@@ -3716,22 +3722,22 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>0</v>
@@ -3741,14 +3747,44 @@
         <v>1</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="12" t="n">
+        <f aca="false">(F63/(F63+G63))</f>
+        <v>1</v>
+      </c>
+      <c r="I63" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H63" s="12"/>
+      <c r="J63" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H64" s="12"/>
@@ -3906,12 +3942,14 @@
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="12"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B514" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H116" s="12"/>
+    </row>
+    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3968,32 +4006,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!E2:E311)</f>
-        <v>694</v>
+        <f aca="false">SUM('liste des taches'!E2:E312)</f>
+        <v>709</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!F2:F311)</f>
-        <v>682</v>
+        <f aca="false">SUM('liste des taches'!F2:F312)</f>
+        <v>692</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!G2:G311)</f>
+        <f aca="false">SUM('liste des taches'!G2:G312)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
@@ -4002,7 +4040,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0172910662824208</v>
+        <v>-0.0239774330042313</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="119">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -341,6 +341,21 @@
   </si>
   <si>
     <t xml:space="preserve">Modification de calculerDistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculerDistributionProportionnelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getProduitdansDons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getBesoinByProduit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculerTotalBesoinRestant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculDonsTotal</t>
   </si>
   <si>
     <t xml:space="preserve">Modification de validerDistribution</t>
@@ -692,7 +707,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="60" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:J183" sheet="liste des taches"/>
+    <worksheetSource ref="A1:J188" sheet="liste des taches"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Module" numFmtId="0">
@@ -1700,8 +1715,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B67" activeCellId="0" sqref="B67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3734,10 +3749,10 @@
         <v>51</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>0</v>
@@ -3758,7 +3773,7 @@
         <v>102</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>106</v>
@@ -3780,26 +3795,176 @@
         <v>1</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="12" t="n">
+        <f aca="false">(F64/(F64+G64))</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="12" t="n">
+        <f aca="false">(F65/(F65+G65))</f>
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="12" t="n">
+        <f aca="false">(F66/(F66+G66))</f>
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="12" t="n">
+        <f aca="false">(F67/(F67+G67))</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="12" t="n">
+        <f aca="false">(F68/(F68+G68))</f>
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J63" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="12"/>
+      <c r="J68" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H69" s="12"/>
@@ -3945,16 +4110,26 @@
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="12"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B515" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H118" s="12"/>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H119" s="12"/>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H120" s="12"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H121" s="12"/>
+    </row>
+    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4006,32 +4181,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!E2:E312)</f>
-        <v>709</v>
+        <f aca="false">SUM('liste des taches'!E2:E317)</f>
+        <v>769</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!F2:F312)</f>
-        <v>692</v>
+        <f aca="false">SUM('liste des taches'!F2:F317)</f>
+        <v>752</v>
       </c>
       <c r="C2" s="1" t="n">
-        <f aca="false">SUM('liste des taches'!G2:G312)</f>
+        <f aca="false">SUM('liste des taches'!G2:G317)</f>
         <v>0</v>
       </c>
       <c r="D2" s="12" t="n">
@@ -4040,7 +4215,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">((B2+C2)-A2)/A2</f>
-        <v>-0.0239774330042313</v>
+        <v>-0.0221066319895969</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/suivi-todolist.xlsx
+++ b/suivi-todolist.xlsx
@@ -1715,8 +1715,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C61" activeCellId="0" sqref="C61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B72" activeCellId="0" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
